--- a/biology/Botanique/Acanthe/Acanthe.xlsx
+++ b/biology/Botanique/Acanthe/Acanthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthus
 Acanthus (les Acanthes), est un genre de plantes vivaces, type de la famille des Acanthacées comprenant une trentaine d'espèces originaires surtout d'Eurasie et d'Afrique.
@@ -512,7 +524,9 @@
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la mythologie grecque, Acanthe (Akantha) était une nymphe. Apollon (dieu des Arts, de la poésie...) voulut l'enlever et elle le griffa au visage. Pour se venger, il la métamorphosa en une plante épineuse qui aime le soleil, et qui porte depuis son nom.
 </t>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste nommé branc-ursine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste nommé branc-ursine.
 Le nom, tiré du grec ἂκανθος, dérive peut-être des deux mots ἂκανοϛ, désignant la tête épineuse de certaines plantes, et de ἂνθοϛ, fleur.
 Dans le langage des fleurs, acanthe signifie « Amour de l'art. Rien ne pourra nous séparer ».
 </t>
@@ -576,7 +592,9 @@
           <t>Sculpture et architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La feuille d'acanthe est le décor caractéristique des chapiteaux de l'ordre corinthien ; c'est aussi un des plus fréquents motifs des sculptures de l'art roman.
 Ce motif a été inspiré par la forme de Acanthus mollis L., l'acanthe à feuilles molles ou « acanthe à feuilles larges » qui est une plante méditerranéenne dont les feuilles sont très découpées. On trouve ce motif par exemple sur la Colonne aux acanthes (ou « Danseuses de Delphes »).
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   9 octobre 2012
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   9 octobre 2012
 Acanthus arboreus Forssk., (1775)
 Acanthus austromontanus Vollesen, (2007)
 Acanthus carduaceus Griff., (1848)
@@ -644,7 +664,7 @@
 Acanthus villaeanus De Wild., (1903)
 Acanthus volubilis Wall., (1831)
 Acanthus xiamenensis R.T.Zhang, (1985)
-Selon NCBI  (6 Aug 2010)[3] :
+Selon NCBI  (6 Aug 2010) :
 Acanthus ebracteatus
 Acanthus eminens
 Acanthus ilicifolius
@@ -682,9 +702,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2] 9 octobre 2012 :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 9 octobre 2012 :
 Acanthus arborescens Panz. = Acanthus arboreus Forssk., (1775)
 Acanthus arboreus var. ruber Schimp. ex Engl. = Acanthus sennii Chiov., (1940)
 Acanthus balcanicus Heywood &amp; F.B.K.Richardson = Acanthus hungaricus (Borbás) Baen. 	, (1896)
@@ -776,9 +798,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2] 9 octobre 2012 :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 9 octobre 2012 :
 Acanthus boissieri Hausskn. [Unplaced]
 Acanthus dioscoridis var. grandiflorus Bornm.
 Acanthus imbricatus Edgew. [Unplaced]
@@ -816,7 +840,9 @@
           <t>L'acanthe comme plante de jardin</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acanthes sont des herbacées semi-persistantes, peu sujettes aux maladies, à floraison spectaculaire en grands épis de fleurs blanches, roses ou mauves à bractées épineuses.
 Trois espèces sont fréquemment cultivées dans les jardins de l'Europe occidentale : 
